--- a/one_year_features.xlsx
+++ b/one_year_features.xlsx
@@ -594,7 +594,7 @@
         <v>10</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -650,7 +650,7 @@
         <v>153</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -706,7 +706,7 @@
         <v>134</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -762,7 +762,7 @@
         <v>101</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -818,7 +818,7 @@
         <v>121</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -874,7 +874,7 @@
         <v>166</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -930,7 +930,7 @@
         <v>130</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -986,7 +986,7 @@
         <v>172</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1042,7 +1042,7 @@
         <v>153</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1098,7 +1098,7 @@
         <v>92</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1210,7 +1210,7 @@
         <v>10</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1266,7 +1266,7 @@
         <v>153</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1322,7 +1322,7 @@
         <v>134</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>433</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1378,7 +1378,7 @@
         <v>101</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1434,7 +1434,7 @@
         <v>121</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1490,7 +1490,7 @@
         <v>166</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1546,7 +1546,7 @@
         <v>130</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1602,7 +1602,7 @@
         <v>172</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1658,7 +1658,7 @@
         <v>153</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>416</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1714,7 +1714,7 @@
         <v>92</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1826,7 +1826,7 @@
         <v>10</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1882,7 +1882,7 @@
         <v>153</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -1938,7 +1938,7 @@
         <v>134</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -1994,7 +1994,7 @@
         <v>101</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2050,7 +2050,7 @@
         <v>121</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2106,7 +2106,7 @@
         <v>166</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>402</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2162,7 +2162,7 @@
         <v>130</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2218,7 +2218,7 @@
         <v>172</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>434</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2274,7 +2274,7 @@
         <v>153</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>416</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2330,7 +2330,7 @@
         <v>92</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>393</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2442,7 +2442,7 @@
         <v>10</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2498,7 +2498,7 @@
         <v>153</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2554,7 +2554,7 @@
         <v>134</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>433</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2610,7 +2610,7 @@
         <v>101</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>371</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2666,7 +2666,7 @@
         <v>121</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -2722,7 +2722,7 @@
         <v>166</v>
       </c>
       <c r="R40">
-        <v>0</v>
+        <v>402</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -2778,7 +2778,7 @@
         <v>130</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -2834,7 +2834,7 @@
         <v>172</v>
       </c>
       <c r="R42">
-        <v>0</v>
+        <v>434</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -2890,7 +2890,7 @@
         <v>153</v>
       </c>
       <c r="R43">
-        <v>0</v>
+        <v>416</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -2946,7 +2946,7 @@
         <v>92</v>
       </c>
       <c r="R44">
-        <v>0</v>
+        <v>393</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3002,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="R45">
-        <v>0</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3058,7 +3058,7 @@
         <v>24</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3114,7 +3114,7 @@
         <v>248</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>739</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3170,7 +3170,7 @@
         <v>344</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>939</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -3226,7 +3226,7 @@
         <v>278</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -3282,7 +3282,7 @@
         <v>252</v>
       </c>
       <c r="R50">
-        <v>0</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -3338,7 +3338,7 @@
         <v>330</v>
       </c>
       <c r="R51">
-        <v>0</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -3394,7 +3394,7 @@
         <v>396</v>
       </c>
       <c r="R52">
-        <v>0</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -3450,7 +3450,7 @@
         <v>387</v>
       </c>
       <c r="R53">
-        <v>0</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -3506,7 +3506,7 @@
         <v>458</v>
       </c>
       <c r="R54">
-        <v>0</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -3562,7 +3562,7 @@
         <v>244</v>
       </c>
       <c r="R55">
-        <v>0</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="R56">
-        <v>0</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -3674,7 +3674,7 @@
         <v>24</v>
       </c>
       <c r="R57">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -3730,7 +3730,7 @@
         <v>248</v>
       </c>
       <c r="R58">
-        <v>0</v>
+        <v>739</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -3786,7 +3786,7 @@
         <v>344</v>
       </c>
       <c r="R59">
-        <v>0</v>
+        <v>939</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -3842,7 +3842,7 @@
         <v>278</v>
       </c>
       <c r="R60">
-        <v>0</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -3898,7 +3898,7 @@
         <v>252</v>
       </c>
       <c r="R61">
-        <v>0</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -3954,7 +3954,7 @@
         <v>330</v>
       </c>
       <c r="R62">
-        <v>0</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4010,7 +4010,7 @@
         <v>396</v>
       </c>
       <c r="R63">
-        <v>0</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4066,7 +4066,7 @@
         <v>387</v>
       </c>
       <c r="R64">
-        <v>0</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4122,7 +4122,7 @@
         <v>458</v>
       </c>
       <c r="R65">
-        <v>0</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4178,7 +4178,7 @@
         <v>244</v>
       </c>
       <c r="R66">
-        <v>0</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="R67">
-        <v>0</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -4290,7 +4290,7 @@
         <v>24</v>
       </c>
       <c r="R68">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -4346,7 +4346,7 @@
         <v>248</v>
       </c>
       <c r="R69">
-        <v>0</v>
+        <v>739</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4402,7 +4402,7 @@
         <v>344</v>
       </c>
       <c r="R70">
-        <v>0</v>
+        <v>939</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -4458,7 +4458,7 @@
         <v>278</v>
       </c>
       <c r="R71">
-        <v>0</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -4514,7 +4514,7 @@
         <v>252</v>
       </c>
       <c r="R72">
-        <v>0</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -4570,7 +4570,7 @@
         <v>330</v>
       </c>
       <c r="R73">
-        <v>0</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -4626,7 +4626,7 @@
         <v>396</v>
       </c>
       <c r="R74">
-        <v>0</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -4682,7 +4682,7 @@
         <v>387</v>
       </c>
       <c r="R75">
-        <v>0</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -4738,7 +4738,7 @@
         <v>458</v>
       </c>
       <c r="R76">
-        <v>0</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -4794,7 +4794,7 @@
         <v>244</v>
       </c>
       <c r="R77">
-        <v>0</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -4850,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="R78">
-        <v>0</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -4906,7 +4906,7 @@
         <v>24</v>
       </c>
       <c r="R79">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -4962,7 +4962,7 @@
         <v>248</v>
       </c>
       <c r="R80">
-        <v>0</v>
+        <v>739</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5018,7 +5018,7 @@
         <v>344</v>
       </c>
       <c r="R81">
-        <v>0</v>
+        <v>939</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5074,7 +5074,7 @@
         <v>278</v>
       </c>
       <c r="R82">
-        <v>0</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5130,7 +5130,7 @@
         <v>252</v>
       </c>
       <c r="R83">
-        <v>0</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5186,7 +5186,7 @@
         <v>330</v>
       </c>
       <c r="R84">
-        <v>0</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5242,7 +5242,7 @@
         <v>396</v>
       </c>
       <c r="R85">
-        <v>0</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5298,7 +5298,7 @@
         <v>387</v>
       </c>
       <c r="R86">
-        <v>0</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5354,7 +5354,7 @@
         <v>458</v>
       </c>
       <c r="R87">
-        <v>0</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -5410,7 +5410,7 @@
         <v>244</v>
       </c>
       <c r="R88">
-        <v>0</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="R89">
-        <v>0</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -5522,7 +5522,7 @@
         <v>18</v>
       </c>
       <c r="R90">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -5578,7 +5578,7 @@
         <v>280</v>
       </c>
       <c r="R91">
-        <v>0</v>
+        <v>588</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -5634,7 +5634,7 @@
         <v>297</v>
       </c>
       <c r="R92">
-        <v>0</v>
+        <v>782</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -5690,7 +5690,7 @@
         <v>260</v>
       </c>
       <c r="R93">
-        <v>0</v>
+        <v>836</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -5746,7 +5746,7 @@
         <v>250</v>
       </c>
       <c r="R94">
-        <v>0</v>
+        <v>829</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -5802,7 +5802,7 @@
         <v>370</v>
       </c>
       <c r="R95">
-        <v>0</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -5858,7 +5858,7 @@
         <v>376</v>
       </c>
       <c r="R96">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -5914,7 +5914,7 @@
         <v>424</v>
       </c>
       <c r="R97">
-        <v>0</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -5970,7 +5970,7 @@
         <v>417</v>
       </c>
       <c r="R98">
-        <v>0</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6026,7 +6026,7 @@
         <v>226</v>
       </c>
       <c r="R99">
-        <v>0</v>
+        <v>975</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6082,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="R100">
-        <v>0</v>
+        <v>802</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6138,7 +6138,7 @@
         <v>18</v>
       </c>
       <c r="R101">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6194,7 +6194,7 @@
         <v>280</v>
       </c>
       <c r="R102">
-        <v>0</v>
+        <v>588</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6250,7 +6250,7 @@
         <v>297</v>
       </c>
       <c r="R103">
-        <v>0</v>
+        <v>782</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6306,7 +6306,7 @@
         <v>260</v>
       </c>
       <c r="R104">
-        <v>0</v>
+        <v>836</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6362,7 +6362,7 @@
         <v>250</v>
       </c>
       <c r="R105">
-        <v>0</v>
+        <v>829</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6418,7 +6418,7 @@
         <v>370</v>
       </c>
       <c r="R106">
-        <v>0</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6474,7 +6474,7 @@
         <v>376</v>
       </c>
       <c r="R107">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -6530,7 +6530,7 @@
         <v>424</v>
       </c>
       <c r="R108">
-        <v>0</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -6586,7 +6586,7 @@
         <v>417</v>
       </c>
       <c r="R109">
-        <v>0</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -6642,7 +6642,7 @@
         <v>226</v>
       </c>
       <c r="R110">
-        <v>0</v>
+        <v>975</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -6698,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="R111">
-        <v>0</v>
+        <v>802</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -6754,7 +6754,7 @@
         <v>18</v>
       </c>
       <c r="R112">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -6810,7 +6810,7 @@
         <v>280</v>
       </c>
       <c r="R113">
-        <v>0</v>
+        <v>588</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -6866,7 +6866,7 @@
         <v>297</v>
       </c>
       <c r="R114">
-        <v>0</v>
+        <v>782</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -6922,7 +6922,7 @@
         <v>260</v>
       </c>
       <c r="R115">
-        <v>0</v>
+        <v>836</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -6978,7 +6978,7 @@
         <v>250</v>
       </c>
       <c r="R116">
-        <v>0</v>
+        <v>829</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7034,7 +7034,7 @@
         <v>370</v>
       </c>
       <c r="R117">
-        <v>0</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7090,7 +7090,7 @@
         <v>376</v>
       </c>
       <c r="R118">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7146,7 +7146,7 @@
         <v>424</v>
       </c>
       <c r="R119">
-        <v>0</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7202,7 +7202,7 @@
         <v>417</v>
       </c>
       <c r="R120">
-        <v>0</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7258,7 +7258,7 @@
         <v>226</v>
       </c>
       <c r="R121">
-        <v>0</v>
+        <v>975</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7314,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="R122">
-        <v>0</v>
+        <v>802</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7370,7 +7370,7 @@
         <v>18</v>
       </c>
       <c r="R123">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7426,7 +7426,7 @@
         <v>280</v>
       </c>
       <c r="R124">
-        <v>0</v>
+        <v>588</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7482,7 +7482,7 @@
         <v>297</v>
       </c>
       <c r="R125">
-        <v>0</v>
+        <v>782</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7538,7 +7538,7 @@
         <v>260</v>
       </c>
       <c r="R126">
-        <v>0</v>
+        <v>836</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7594,7 +7594,7 @@
         <v>250</v>
       </c>
       <c r="R127">
-        <v>0</v>
+        <v>829</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -7650,7 +7650,7 @@
         <v>370</v>
       </c>
       <c r="R128">
-        <v>0</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -7706,7 +7706,7 @@
         <v>376</v>
       </c>
       <c r="R129">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -7762,7 +7762,7 @@
         <v>424</v>
       </c>
       <c r="R130">
-        <v>0</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -7818,7 +7818,7 @@
         <v>417</v>
       </c>
       <c r="R131">
-        <v>0</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -7874,7 +7874,7 @@
         <v>226</v>
       </c>
       <c r="R132">
-        <v>0</v>
+        <v>975</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -7930,7 +7930,7 @@
         <v>0</v>
       </c>
       <c r="R133">
-        <v>0</v>
+        <v>802</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -7986,7 +7986,7 @@
         <v>17</v>
       </c>
       <c r="R134">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8042,7 +8042,7 @@
         <v>166</v>
       </c>
       <c r="R135">
-        <v>0</v>
+        <v>412</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8098,7 +8098,7 @@
         <v>188</v>
       </c>
       <c r="R136">
-        <v>0</v>
+        <v>512</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8154,7 +8154,7 @@
         <v>190</v>
       </c>
       <c r="R137">
-        <v>0</v>
+        <v>550</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8210,7 +8210,7 @@
         <v>181</v>
       </c>
       <c r="R138">
-        <v>0</v>
+        <v>601</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8266,7 +8266,7 @@
         <v>253</v>
       </c>
       <c r="R139">
-        <v>0</v>
+        <v>685</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8322,7 +8322,7 @@
         <v>227</v>
       </c>
       <c r="R140">
-        <v>0</v>
+        <v>614</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8378,7 +8378,7 @@
         <v>286</v>
       </c>
       <c r="R141">
-        <v>0</v>
+        <v>671</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8434,7 +8434,7 @@
         <v>230</v>
       </c>
       <c r="R142">
-        <v>0</v>
+        <v>631</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8490,7 +8490,7 @@
         <v>145</v>
       </c>
       <c r="R143">
-        <v>0</v>
+        <v>664</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="R144">
-        <v>0</v>
+        <v>526</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8602,7 +8602,7 @@
         <v>17</v>
       </c>
       <c r="R145">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8658,7 +8658,7 @@
         <v>166</v>
       </c>
       <c r="R146">
-        <v>0</v>
+        <v>412</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8714,7 +8714,7 @@
         <v>188</v>
       </c>
       <c r="R147">
-        <v>0</v>
+        <v>512</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -8770,7 +8770,7 @@
         <v>190</v>
       </c>
       <c r="R148">
-        <v>0</v>
+        <v>550</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -8826,7 +8826,7 @@
         <v>181</v>
       </c>
       <c r="R149">
-        <v>0</v>
+        <v>601</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -8882,7 +8882,7 @@
         <v>253</v>
       </c>
       <c r="R150">
-        <v>0</v>
+        <v>685</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -8938,7 +8938,7 @@
         <v>227</v>
       </c>
       <c r="R151">
-        <v>0</v>
+        <v>614</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -8994,7 +8994,7 @@
         <v>286</v>
       </c>
       <c r="R152">
-        <v>0</v>
+        <v>671</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9050,7 +9050,7 @@
         <v>230</v>
       </c>
       <c r="R153">
-        <v>0</v>
+        <v>631</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9106,7 +9106,7 @@
         <v>145</v>
       </c>
       <c r="R154">
-        <v>0</v>
+        <v>664</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9162,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="R155">
-        <v>0</v>
+        <v>526</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9218,7 +9218,7 @@
         <v>17</v>
       </c>
       <c r="R156">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9274,7 +9274,7 @@
         <v>166</v>
       </c>
       <c r="R157">
-        <v>0</v>
+        <v>412</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9330,7 +9330,7 @@
         <v>188</v>
       </c>
       <c r="R158">
-        <v>0</v>
+        <v>512</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9386,7 +9386,7 @@
         <v>190</v>
       </c>
       <c r="R159">
-        <v>0</v>
+        <v>550</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9442,7 +9442,7 @@
         <v>181</v>
       </c>
       <c r="R160">
-        <v>0</v>
+        <v>601</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9498,7 +9498,7 @@
         <v>253</v>
       </c>
       <c r="R161">
-        <v>0</v>
+        <v>685</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9554,7 +9554,7 @@
         <v>227</v>
       </c>
       <c r="R162">
-        <v>0</v>
+        <v>614</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9610,7 +9610,7 @@
         <v>286</v>
       </c>
       <c r="R163">
-        <v>0</v>
+        <v>671</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9666,7 +9666,7 @@
         <v>230</v>
       </c>
       <c r="R164">
-        <v>0</v>
+        <v>631</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9722,7 +9722,7 @@
         <v>145</v>
       </c>
       <c r="R165">
-        <v>0</v>
+        <v>664</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9778,7 +9778,7 @@
         <v>0</v>
       </c>
       <c r="R166">
-        <v>0</v>
+        <v>526</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9834,7 +9834,7 @@
         <v>17</v>
       </c>
       <c r="R167">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9890,7 +9890,7 @@
         <v>166</v>
       </c>
       <c r="R168">
-        <v>0</v>
+        <v>412</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -9946,7 +9946,7 @@
         <v>188</v>
       </c>
       <c r="R169">
-        <v>0</v>
+        <v>512</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10002,7 +10002,7 @@
         <v>190</v>
       </c>
       <c r="R170">
-        <v>0</v>
+        <v>550</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10058,7 +10058,7 @@
         <v>181</v>
       </c>
       <c r="R171">
-        <v>0</v>
+        <v>601</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10114,7 +10114,7 @@
         <v>253</v>
       </c>
       <c r="R172">
-        <v>0</v>
+        <v>685</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10170,7 +10170,7 @@
         <v>227</v>
       </c>
       <c r="R173">
-        <v>0</v>
+        <v>614</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10226,7 +10226,7 @@
         <v>286</v>
       </c>
       <c r="R174">
-        <v>0</v>
+        <v>671</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10282,7 +10282,7 @@
         <v>230</v>
       </c>
       <c r="R175">
-        <v>0</v>
+        <v>631</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10338,7 +10338,7 @@
         <v>145</v>
       </c>
       <c r="R176">
-        <v>0</v>
+        <v>664</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10394,7 +10394,7 @@
         <v>0</v>
       </c>
       <c r="R177">
-        <v>0</v>
+        <v>526</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10450,7 +10450,7 @@
         <v>18</v>
       </c>
       <c r="R178">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10506,7 +10506,7 @@
         <v>186</v>
       </c>
       <c r="R179">
-        <v>0</v>
+        <v>343</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10562,7 +10562,7 @@
         <v>161</v>
       </c>
       <c r="R180">
-        <v>0</v>
+        <v>492</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10618,7 +10618,7 @@
         <v>130</v>
       </c>
       <c r="R181">
-        <v>0</v>
+        <v>428</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10674,7 +10674,7 @@
         <v>137</v>
       </c>
       <c r="R182">
-        <v>0</v>
+        <v>470</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10730,7 +10730,7 @@
         <v>151</v>
       </c>
       <c r="R183">
-        <v>0</v>
+        <v>439</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10786,7 +10786,7 @@
         <v>132</v>
       </c>
       <c r="R184">
-        <v>0</v>
+        <v>532</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10842,7 +10842,7 @@
         <v>246</v>
       </c>
       <c r="R185">
-        <v>0</v>
+        <v>604</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10898,7 +10898,7 @@
         <v>255</v>
       </c>
       <c r="R186">
-        <v>0</v>
+        <v>606</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10954,7 +10954,7 @@
         <v>106</v>
       </c>
       <c r="R187">
-        <v>0</v>
+        <v>446</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11010,7 +11010,7 @@
         <v>0</v>
       </c>
       <c r="R188">
-        <v>0</v>
+        <v>386</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11066,7 +11066,7 @@
         <v>18</v>
       </c>
       <c r="R189">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11122,7 +11122,7 @@
         <v>186</v>
       </c>
       <c r="R190">
-        <v>0</v>
+        <v>343</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11178,7 +11178,7 @@
         <v>161</v>
       </c>
       <c r="R191">
-        <v>0</v>
+        <v>492</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11234,7 +11234,7 @@
         <v>130</v>
       </c>
       <c r="R192">
-        <v>0</v>
+        <v>428</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11290,7 +11290,7 @@
         <v>137</v>
       </c>
       <c r="R193">
-        <v>0</v>
+        <v>470</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11346,7 +11346,7 @@
         <v>151</v>
       </c>
       <c r="R194">
-        <v>0</v>
+        <v>439</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11402,7 +11402,7 @@
         <v>132</v>
       </c>
       <c r="R195">
-        <v>0</v>
+        <v>532</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11458,7 +11458,7 @@
         <v>246</v>
       </c>
       <c r="R196">
-        <v>0</v>
+        <v>604</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11514,7 +11514,7 @@
         <v>255</v>
       </c>
       <c r="R197">
-        <v>0</v>
+        <v>606</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11570,7 +11570,7 @@
         <v>106</v>
       </c>
       <c r="R198">
-        <v>0</v>
+        <v>446</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="R199">
-        <v>0</v>
+        <v>386</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11682,7 +11682,7 @@
         <v>18</v>
       </c>
       <c r="R200">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11738,7 +11738,7 @@
         <v>186</v>
       </c>
       <c r="R201">
-        <v>0</v>
+        <v>343</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11794,7 +11794,7 @@
         <v>161</v>
       </c>
       <c r="R202">
-        <v>0</v>
+        <v>492</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11850,7 +11850,7 @@
         <v>130</v>
       </c>
       <c r="R203">
-        <v>0</v>
+        <v>428</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11906,7 +11906,7 @@
         <v>137</v>
       </c>
       <c r="R204">
-        <v>0</v>
+        <v>470</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11962,7 +11962,7 @@
         <v>151</v>
       </c>
       <c r="R205">
-        <v>0</v>
+        <v>439</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -12018,7 +12018,7 @@
         <v>132</v>
       </c>
       <c r="R206">
-        <v>0</v>
+        <v>532</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -12074,7 +12074,7 @@
         <v>246</v>
       </c>
       <c r="R207">
-        <v>0</v>
+        <v>604</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12130,7 +12130,7 @@
         <v>255</v>
       </c>
       <c r="R208">
-        <v>0</v>
+        <v>606</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12186,7 +12186,7 @@
         <v>106</v>
       </c>
       <c r="R209">
-        <v>0</v>
+        <v>446</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12242,7 +12242,7 @@
         <v>0</v>
       </c>
       <c r="R210">
-        <v>0</v>
+        <v>386</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12298,7 +12298,7 @@
         <v>18</v>
       </c>
       <c r="R211">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12354,7 +12354,7 @@
         <v>186</v>
       </c>
       <c r="R212">
-        <v>0</v>
+        <v>343</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12410,7 +12410,7 @@
         <v>161</v>
       </c>
       <c r="R213">
-        <v>0</v>
+        <v>492</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12466,7 +12466,7 @@
         <v>130</v>
       </c>
       <c r="R214">
-        <v>0</v>
+        <v>428</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12522,7 +12522,7 @@
         <v>137</v>
       </c>
       <c r="R215">
-        <v>0</v>
+        <v>470</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12578,7 +12578,7 @@
         <v>151</v>
       </c>
       <c r="R216">
-        <v>0</v>
+        <v>439</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12634,7 +12634,7 @@
         <v>132</v>
       </c>
       <c r="R217">
-        <v>0</v>
+        <v>532</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12690,7 +12690,7 @@
         <v>246</v>
       </c>
       <c r="R218">
-        <v>0</v>
+        <v>604</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12746,7 +12746,7 @@
         <v>255</v>
       </c>
       <c r="R219">
-        <v>0</v>
+        <v>606</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12802,7 +12802,7 @@
         <v>106</v>
       </c>
       <c r="R220">
-        <v>0</v>
+        <v>446</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12858,7 +12858,7 @@
         <v>0</v>
       </c>
       <c r="R221">
-        <v>0</v>
+        <v>386</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12914,7 +12914,7 @@
         <v>22</v>
       </c>
       <c r="R222">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12970,7 +12970,7 @@
         <v>178</v>
       </c>
       <c r="R223">
-        <v>0</v>
+        <v>337</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -13026,7 +13026,7 @@
         <v>164</v>
       </c>
       <c r="R224">
-        <v>0</v>
+        <v>405</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -13082,7 +13082,7 @@
         <v>159</v>
       </c>
       <c r="R225">
-        <v>0</v>
+        <v>447</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -13138,7 +13138,7 @@
         <v>182</v>
       </c>
       <c r="R226">
-        <v>0</v>
+        <v>472</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -13194,7 +13194,7 @@
         <v>208</v>
       </c>
       <c r="R227">
-        <v>0</v>
+        <v>465</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13250,7 +13250,7 @@
         <v>215</v>
       </c>
       <c r="R228">
-        <v>0</v>
+        <v>538</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13306,7 +13306,7 @@
         <v>241</v>
       </c>
       <c r="R229">
-        <v>0</v>
+        <v>548</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13362,7 +13362,7 @@
         <v>237</v>
       </c>
       <c r="R230">
-        <v>0</v>
+        <v>654</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13418,7 +13418,7 @@
         <v>128</v>
       </c>
       <c r="R231">
-        <v>0</v>
+        <v>529</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13474,7 +13474,7 @@
         <v>0</v>
       </c>
       <c r="R232">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13530,7 +13530,7 @@
         <v>22</v>
       </c>
       <c r="R233">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13586,7 +13586,7 @@
         <v>178</v>
       </c>
       <c r="R234">
-        <v>0</v>
+        <v>337</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13642,7 +13642,7 @@
         <v>164</v>
       </c>
       <c r="R235">
-        <v>0</v>
+        <v>405</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13698,7 +13698,7 @@
         <v>159</v>
       </c>
       <c r="R236">
-        <v>0</v>
+        <v>447</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13754,7 +13754,7 @@
         <v>182</v>
       </c>
       <c r="R237">
-        <v>0</v>
+        <v>472</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13810,7 +13810,7 @@
         <v>208</v>
       </c>
       <c r="R238">
-        <v>0</v>
+        <v>465</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13866,7 +13866,7 @@
         <v>215</v>
       </c>
       <c r="R239">
-        <v>0</v>
+        <v>538</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13922,7 +13922,7 @@
         <v>241</v>
       </c>
       <c r="R240">
-        <v>0</v>
+        <v>548</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13978,7 +13978,7 @@
         <v>237</v>
       </c>
       <c r="R241">
-        <v>0</v>
+        <v>654</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -14034,7 +14034,7 @@
         <v>128</v>
       </c>
       <c r="R242">
-        <v>0</v>
+        <v>529</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -14090,7 +14090,7 @@
         <v>0</v>
       </c>
       <c r="R243">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -14146,7 +14146,7 @@
         <v>22</v>
       </c>
       <c r="R244">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -14202,7 +14202,7 @@
         <v>178</v>
       </c>
       <c r="R245">
-        <v>0</v>
+        <v>337</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -14258,7 +14258,7 @@
         <v>164</v>
       </c>
       <c r="R246">
-        <v>0</v>
+        <v>405</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -14314,7 +14314,7 @@
         <v>159</v>
       </c>
       <c r="R247">
-        <v>0</v>
+        <v>447</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -14370,7 +14370,7 @@
         <v>182</v>
       </c>
       <c r="R248">
-        <v>0</v>
+        <v>472</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14426,7 +14426,7 @@
         <v>208</v>
       </c>
       <c r="R249">
-        <v>0</v>
+        <v>465</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14482,7 +14482,7 @@
         <v>215</v>
       </c>
       <c r="R250">
-        <v>0</v>
+        <v>538</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14538,7 +14538,7 @@
         <v>241</v>
       </c>
       <c r="R251">
-        <v>0</v>
+        <v>548</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14594,7 +14594,7 @@
         <v>237</v>
       </c>
       <c r="R252">
-        <v>0</v>
+        <v>654</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14650,7 +14650,7 @@
         <v>128</v>
       </c>
       <c r="R253">
-        <v>0</v>
+        <v>529</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14706,7 +14706,7 @@
         <v>0</v>
       </c>
       <c r="R254">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14762,7 +14762,7 @@
         <v>22</v>
       </c>
       <c r="R255">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14818,7 +14818,7 @@
         <v>178</v>
       </c>
       <c r="R256">
-        <v>0</v>
+        <v>337</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14874,7 +14874,7 @@
         <v>164</v>
       </c>
       <c r="R257">
-        <v>0</v>
+        <v>405</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14930,7 +14930,7 @@
         <v>159</v>
       </c>
       <c r="R258">
-        <v>0</v>
+        <v>447</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14986,7 +14986,7 @@
         <v>182</v>
       </c>
       <c r="R259">
-        <v>0</v>
+        <v>472</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -15042,7 +15042,7 @@
         <v>208</v>
       </c>
       <c r="R260">
-        <v>0</v>
+        <v>465</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -15098,7 +15098,7 @@
         <v>215</v>
       </c>
       <c r="R261">
-        <v>0</v>
+        <v>538</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -15154,7 +15154,7 @@
         <v>241</v>
       </c>
       <c r="R262">
-        <v>0</v>
+        <v>548</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -15210,7 +15210,7 @@
         <v>237</v>
       </c>
       <c r="R263">
-        <v>0</v>
+        <v>654</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -15266,7 +15266,7 @@
         <v>128</v>
       </c>
       <c r="R264">
-        <v>0</v>
+        <v>529</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -15322,7 +15322,7 @@
         <v>0</v>
       </c>
       <c r="R265">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -15378,7 +15378,7 @@
         <v>17</v>
       </c>
       <c r="R266">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -15434,7 +15434,7 @@
         <v>239</v>
       </c>
       <c r="R267">
-        <v>0</v>
+        <v>669</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -15490,7 +15490,7 @@
         <v>254</v>
       </c>
       <c r="R268">
-        <v>0</v>
+        <v>804</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15546,7 +15546,7 @@
         <v>231</v>
       </c>
       <c r="R269">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15602,7 +15602,7 @@
         <v>192</v>
       </c>
       <c r="R270">
-        <v>0</v>
+        <v>758</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15658,7 +15658,7 @@
         <v>258</v>
       </c>
       <c r="R271">
-        <v>0</v>
+        <v>781</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15714,7 +15714,7 @@
         <v>271</v>
       </c>
       <c r="R272">
-        <v>0</v>
+        <v>737</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15770,7 +15770,7 @@
         <v>321</v>
       </c>
       <c r="R273">
-        <v>0</v>
+        <v>791</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15826,7 +15826,7 @@
         <v>348</v>
       </c>
       <c r="R274">
-        <v>0</v>
+        <v>877</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15882,7 +15882,7 @@
         <v>142</v>
       </c>
       <c r="R275">
-        <v>0</v>
+        <v>780</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15938,7 +15938,7 @@
         <v>0</v>
       </c>
       <c r="R276">
-        <v>0</v>
+        <v>628</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15994,7 +15994,7 @@
         <v>17</v>
       </c>
       <c r="R277">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -16050,7 +16050,7 @@
         <v>239</v>
       </c>
       <c r="R278">
-        <v>0</v>
+        <v>669</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -16106,7 +16106,7 @@
         <v>254</v>
       </c>
       <c r="R279">
-        <v>0</v>
+        <v>804</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -16162,7 +16162,7 @@
         <v>231</v>
       </c>
       <c r="R280">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -16218,7 +16218,7 @@
         <v>192</v>
       </c>
       <c r="R281">
-        <v>0</v>
+        <v>758</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -16274,7 +16274,7 @@
         <v>258</v>
       </c>
       <c r="R282">
-        <v>0</v>
+        <v>781</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -16330,7 +16330,7 @@
         <v>271</v>
       </c>
       <c r="R283">
-        <v>0</v>
+        <v>737</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -16386,7 +16386,7 @@
         <v>321</v>
       </c>
       <c r="R284">
-        <v>0</v>
+        <v>791</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -16442,7 +16442,7 @@
         <v>348</v>
       </c>
       <c r="R285">
-        <v>0</v>
+        <v>877</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -16498,7 +16498,7 @@
         <v>142</v>
       </c>
       <c r="R286">
-        <v>0</v>
+        <v>780</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -16554,7 +16554,7 @@
         <v>0</v>
       </c>
       <c r="R287">
-        <v>0</v>
+        <v>628</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -16610,7 +16610,7 @@
         <v>17</v>
       </c>
       <c r="R288">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16666,7 +16666,7 @@
         <v>239</v>
       </c>
       <c r="R289">
-        <v>0</v>
+        <v>669</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16722,7 +16722,7 @@
         <v>254</v>
       </c>
       <c r="R290">
-        <v>0</v>
+        <v>804</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16778,7 +16778,7 @@
         <v>231</v>
       </c>
       <c r="R291">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16834,7 +16834,7 @@
         <v>192</v>
       </c>
       <c r="R292">
-        <v>0</v>
+        <v>758</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16890,7 +16890,7 @@
         <v>258</v>
       </c>
       <c r="R293">
-        <v>0</v>
+        <v>781</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16946,7 +16946,7 @@
         <v>271</v>
       </c>
       <c r="R294">
-        <v>0</v>
+        <v>737</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -17002,7 +17002,7 @@
         <v>321</v>
       </c>
       <c r="R295">
-        <v>0</v>
+        <v>791</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -17058,7 +17058,7 @@
         <v>348</v>
       </c>
       <c r="R296">
-        <v>0</v>
+        <v>877</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -17114,7 +17114,7 @@
         <v>142</v>
       </c>
       <c r="R297">
-        <v>0</v>
+        <v>780</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -17170,7 +17170,7 @@
         <v>0</v>
       </c>
       <c r="R298">
-        <v>0</v>
+        <v>628</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -17226,7 +17226,7 @@
         <v>17</v>
       </c>
       <c r="R299">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -17282,7 +17282,7 @@
         <v>239</v>
       </c>
       <c r="R300">
-        <v>0</v>
+        <v>669</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -17338,7 +17338,7 @@
         <v>254</v>
       </c>
       <c r="R301">
-        <v>0</v>
+        <v>804</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -17394,7 +17394,7 @@
         <v>231</v>
       </c>
       <c r="R302">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -17450,7 +17450,7 @@
         <v>192</v>
       </c>
       <c r="R303">
-        <v>0</v>
+        <v>758</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -17506,7 +17506,7 @@
         <v>258</v>
       </c>
       <c r="R304">
-        <v>0</v>
+        <v>781</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -17562,7 +17562,7 @@
         <v>271</v>
       </c>
       <c r="R305">
-        <v>0</v>
+        <v>737</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -17618,7 +17618,7 @@
         <v>321</v>
       </c>
       <c r="R306">
-        <v>0</v>
+        <v>791</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -17674,7 +17674,7 @@
         <v>348</v>
       </c>
       <c r="R307">
-        <v>0</v>
+        <v>877</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -17730,7 +17730,7 @@
         <v>142</v>
       </c>
       <c r="R308">
-        <v>0</v>
+        <v>780</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -17786,7 +17786,7 @@
         <v>0</v>
       </c>
       <c r="R309">
-        <v>0</v>
+        <v>628</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17842,7 +17842,7 @@
         <v>10</v>
       </c>
       <c r="R310">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17898,7 +17898,7 @@
         <v>261</v>
       </c>
       <c r="R311">
-        <v>0</v>
+        <v>534</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17954,7 +17954,7 @@
         <v>214</v>
       </c>
       <c r="R312">
-        <v>0</v>
+        <v>630</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -18010,7 +18010,7 @@
         <v>209</v>
       </c>
       <c r="R313">
-        <v>0</v>
+        <v>664</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -18066,7 +18066,7 @@
         <v>213</v>
       </c>
       <c r="R314">
-        <v>0</v>
+        <v>777</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -18122,7 +18122,7 @@
         <v>293</v>
       </c>
       <c r="R315">
-        <v>0</v>
+        <v>802</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -18178,7 +18178,7 @@
         <v>304</v>
       </c>
       <c r="R316">
-        <v>0</v>
+        <v>709</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -18234,7 +18234,7 @@
         <v>367</v>
       </c>
       <c r="R317">
-        <v>0</v>
+        <v>765</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -18290,7 +18290,7 @@
         <v>352</v>
       </c>
       <c r="R318">
-        <v>0</v>
+        <v>732</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -18346,7 +18346,7 @@
         <v>192</v>
       </c>
       <c r="R319">
-        <v>0</v>
+        <v>719</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -18402,7 +18402,7 @@
         <v>0</v>
       </c>
       <c r="R320">
-        <v>0</v>
+        <v>734</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -18458,7 +18458,7 @@
         <v>10</v>
       </c>
       <c r="R321">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -18514,7 +18514,7 @@
         <v>261</v>
       </c>
       <c r="R322">
-        <v>0</v>
+        <v>534</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -18570,7 +18570,7 @@
         <v>214</v>
       </c>
       <c r="R323">
-        <v>0</v>
+        <v>630</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -18626,7 +18626,7 @@
         <v>209</v>
       </c>
       <c r="R324">
-        <v>0</v>
+        <v>664</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -18682,7 +18682,7 @@
         <v>213</v>
       </c>
       <c r="R325">
-        <v>0</v>
+        <v>777</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -18738,7 +18738,7 @@
         <v>293</v>
       </c>
       <c r="R326">
-        <v>0</v>
+        <v>802</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -18794,7 +18794,7 @@
         <v>304</v>
       </c>
       <c r="R327">
-        <v>0</v>
+        <v>709</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -18850,7 +18850,7 @@
         <v>367</v>
       </c>
       <c r="R328">
-        <v>0</v>
+        <v>765</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -18906,7 +18906,7 @@
         <v>352</v>
       </c>
       <c r="R329">
-        <v>0</v>
+        <v>732</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18962,7 +18962,7 @@
         <v>192</v>
       </c>
       <c r="R330">
-        <v>0</v>
+        <v>719</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -19018,7 +19018,7 @@
         <v>0</v>
       </c>
       <c r="R331">
-        <v>0</v>
+        <v>734</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -19074,7 +19074,7 @@
         <v>10</v>
       </c>
       <c r="R332">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -19130,7 +19130,7 @@
         <v>261</v>
       </c>
       <c r="R333">
-        <v>0</v>
+        <v>534</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -19186,7 +19186,7 @@
         <v>214</v>
       </c>
       <c r="R334">
-        <v>0</v>
+        <v>630</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -19242,7 +19242,7 @@
         <v>209</v>
       </c>
       <c r="R335">
-        <v>0</v>
+        <v>664</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -19298,7 +19298,7 @@
         <v>213</v>
       </c>
       <c r="R336">
-        <v>0</v>
+        <v>777</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -19354,7 +19354,7 @@
         <v>293</v>
       </c>
       <c r="R337">
-        <v>0</v>
+        <v>802</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -19410,7 +19410,7 @@
         <v>304</v>
       </c>
       <c r="R338">
-        <v>0</v>
+        <v>709</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -19466,7 +19466,7 @@
         <v>367</v>
       </c>
       <c r="R339">
-        <v>0</v>
+        <v>765</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -19522,7 +19522,7 @@
         <v>352</v>
       </c>
       <c r="R340">
-        <v>0</v>
+        <v>732</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -19578,7 +19578,7 @@
         <v>192</v>
       </c>
       <c r="R341">
-        <v>0</v>
+        <v>719</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -19634,7 +19634,7 @@
         <v>0</v>
       </c>
       <c r="R342">
-        <v>0</v>
+        <v>734</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -19690,7 +19690,7 @@
         <v>10</v>
       </c>
       <c r="R343">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -19746,7 +19746,7 @@
         <v>261</v>
       </c>
       <c r="R344">
-        <v>0</v>
+        <v>534</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -19802,7 +19802,7 @@
         <v>214</v>
       </c>
       <c r="R345">
-        <v>0</v>
+        <v>630</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -19858,7 +19858,7 @@
         <v>209</v>
       </c>
       <c r="R346">
-        <v>0</v>
+        <v>664</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -19914,7 +19914,7 @@
         <v>213</v>
       </c>
       <c r="R347">
-        <v>0</v>
+        <v>777</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -19970,7 +19970,7 @@
         <v>293</v>
       </c>
       <c r="R348">
-        <v>0</v>
+        <v>802</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -20026,7 +20026,7 @@
         <v>304</v>
       </c>
       <c r="R349">
-        <v>0</v>
+        <v>709</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -20082,7 +20082,7 @@
         <v>367</v>
       </c>
       <c r="R350">
-        <v>0</v>
+        <v>765</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -20138,7 +20138,7 @@
         <v>352</v>
       </c>
       <c r="R351">
-        <v>0</v>
+        <v>732</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -20194,7 +20194,7 @@
         <v>192</v>
       </c>
       <c r="R352">
-        <v>0</v>
+        <v>719</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -20250,7 +20250,7 @@
         <v>0</v>
       </c>
       <c r="R353">
-        <v>0</v>
+        <v>734</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -20306,7 +20306,7 @@
         <v>7</v>
       </c>
       <c r="R354">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -20362,7 +20362,7 @@
         <v>123</v>
       </c>
       <c r="R355">
-        <v>0</v>
+        <v>242</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -20418,7 +20418,7 @@
         <v>92</v>
       </c>
       <c r="R356">
-        <v>0</v>
+        <v>257</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -20474,7 +20474,7 @@
         <v>87</v>
       </c>
       <c r="R357">
-        <v>0</v>
+        <v>294</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -20530,7 +20530,7 @@
         <v>77</v>
       </c>
       <c r="R358">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -20586,7 +20586,7 @@
         <v>142</v>
       </c>
       <c r="R359">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -20642,7 +20642,7 @@
         <v>135</v>
       </c>
       <c r="R360">
-        <v>0</v>
+        <v>292</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -20698,7 +20698,7 @@
         <v>177</v>
       </c>
       <c r="R361">
-        <v>0</v>
+        <v>387</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -20754,7 +20754,7 @@
         <v>156</v>
       </c>
       <c r="R362">
-        <v>0</v>
+        <v>363</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -20810,7 +20810,7 @@
         <v>92</v>
       </c>
       <c r="R363">
-        <v>0</v>
+        <v>418</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -20866,7 +20866,7 @@
         <v>0</v>
       </c>
       <c r="R364">
-        <v>0</v>
+        <v>385</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -20922,7 +20922,7 @@
         <v>7</v>
       </c>
       <c r="R365">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -20978,7 +20978,7 @@
         <v>123</v>
       </c>
       <c r="R366">
-        <v>0</v>
+        <v>242</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -21034,7 +21034,7 @@
         <v>92</v>
       </c>
       <c r="R367">
-        <v>0</v>
+        <v>257</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -21090,7 +21090,7 @@
         <v>87</v>
       </c>
       <c r="R368">
-        <v>0</v>
+        <v>294</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -21146,7 +21146,7 @@
         <v>77</v>
       </c>
       <c r="R369">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -21202,7 +21202,7 @@
         <v>142</v>
       </c>
       <c r="R370">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -21258,7 +21258,7 @@
         <v>135</v>
       </c>
       <c r="R371">
-        <v>0</v>
+        <v>292</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -21314,7 +21314,7 @@
         <v>177</v>
       </c>
       <c r="R372">
-        <v>0</v>
+        <v>387</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -21370,7 +21370,7 @@
         <v>156</v>
       </c>
       <c r="R373">
-        <v>0</v>
+        <v>363</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -21426,7 +21426,7 @@
         <v>92</v>
       </c>
       <c r="R374">
-        <v>0</v>
+        <v>418</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -21482,7 +21482,7 @@
         <v>0</v>
       </c>
       <c r="R375">
-        <v>0</v>
+        <v>385</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -21538,7 +21538,7 @@
         <v>7</v>
       </c>
       <c r="R376">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -21594,7 +21594,7 @@
         <v>123</v>
       </c>
       <c r="R377">
-        <v>0</v>
+        <v>242</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -21650,7 +21650,7 @@
         <v>92</v>
       </c>
       <c r="R378">
-        <v>0</v>
+        <v>257</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -21706,7 +21706,7 @@
         <v>87</v>
       </c>
       <c r="R379">
-        <v>0</v>
+        <v>294</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -21762,7 +21762,7 @@
         <v>77</v>
       </c>
       <c r="R380">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -21818,7 +21818,7 @@
         <v>142</v>
       </c>
       <c r="R381">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -21874,7 +21874,7 @@
         <v>135</v>
       </c>
       <c r="R382">
-        <v>0</v>
+        <v>292</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -21930,7 +21930,7 @@
         <v>177</v>
       </c>
       <c r="R383">
-        <v>0</v>
+        <v>387</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -21986,7 +21986,7 @@
         <v>156</v>
       </c>
       <c r="R384">
-        <v>0</v>
+        <v>363</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -22042,7 +22042,7 @@
         <v>92</v>
       </c>
       <c r="R385">
-        <v>0</v>
+        <v>418</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -22098,7 +22098,7 @@
         <v>0</v>
       </c>
       <c r="R386">
-        <v>0</v>
+        <v>385</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -22154,7 +22154,7 @@
         <v>7</v>
       </c>
       <c r="R387">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -22210,7 +22210,7 @@
         <v>123</v>
       </c>
       <c r="R388">
-        <v>0</v>
+        <v>242</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -22266,7 +22266,7 @@
         <v>92</v>
       </c>
       <c r="R389">
-        <v>0</v>
+        <v>257</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -22322,7 +22322,7 @@
         <v>87</v>
       </c>
       <c r="R390">
-        <v>0</v>
+        <v>294</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -22378,7 +22378,7 @@
         <v>77</v>
       </c>
       <c r="R391">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -22434,7 +22434,7 @@
         <v>142</v>
       </c>
       <c r="R392">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -22490,7 +22490,7 @@
         <v>135</v>
       </c>
       <c r="R393">
-        <v>0</v>
+        <v>292</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -22546,7 +22546,7 @@
         <v>177</v>
       </c>
       <c r="R394">
-        <v>0</v>
+        <v>387</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -22602,7 +22602,7 @@
         <v>156</v>
       </c>
       <c r="R395">
-        <v>0</v>
+        <v>363</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -22658,7 +22658,7 @@
         <v>92</v>
       </c>
       <c r="R396">
-        <v>0</v>
+        <v>418</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="R397">
-        <v>0</v>
+        <v>385</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -22770,7 +22770,7 @@
         <v>9</v>
       </c>
       <c r="R398">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -22826,7 +22826,7 @@
         <v>186</v>
       </c>
       <c r="R399">
-        <v>0</v>
+        <v>307</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -22882,7 +22882,7 @@
         <v>222</v>
       </c>
       <c r="R400">
-        <v>0</v>
+        <v>530</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -22938,7 +22938,7 @@
         <v>178</v>
       </c>
       <c r="R401">
-        <v>0</v>
+        <v>457</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -22994,7 +22994,7 @@
         <v>193</v>
       </c>
       <c r="R402">
-        <v>0</v>
+        <v>455</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -23050,7 +23050,7 @@
         <v>167</v>
       </c>
       <c r="R403">
-        <v>0</v>
+        <v>444</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -23106,7 +23106,7 @@
         <v>217</v>
       </c>
       <c r="R404">
-        <v>0</v>
+        <v>437</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -23162,7 +23162,7 @@
         <v>225</v>
       </c>
       <c r="R405">
-        <v>0</v>
+        <v>640</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -23218,7 +23218,7 @@
         <v>206</v>
       </c>
       <c r="R406">
-        <v>0</v>
+        <v>583</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -23274,7 +23274,7 @@
         <v>140</v>
       </c>
       <c r="R407">
-        <v>0</v>
+        <v>670</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -23330,7 +23330,7 @@
         <v>0</v>
       </c>
       <c r="R408">
-        <v>0</v>
+        <v>475</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -23386,7 +23386,7 @@
         <v>9</v>
       </c>
       <c r="R409">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -23442,7 +23442,7 @@
         <v>186</v>
       </c>
       <c r="R410">
-        <v>0</v>
+        <v>307</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -23498,7 +23498,7 @@
         <v>222</v>
       </c>
       <c r="R411">
-        <v>0</v>
+        <v>530</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -23554,7 +23554,7 @@
         <v>178</v>
       </c>
       <c r="R412">
-        <v>0</v>
+        <v>457</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -23610,7 +23610,7 @@
         <v>193</v>
       </c>
       <c r="R413">
-        <v>0</v>
+        <v>455</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -23666,7 +23666,7 @@
         <v>167</v>
       </c>
       <c r="R414">
-        <v>0</v>
+        <v>444</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -23722,7 +23722,7 @@
         <v>217</v>
       </c>
       <c r="R415">
-        <v>0</v>
+        <v>437</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -23778,7 +23778,7 @@
         <v>225</v>
       </c>
       <c r="R416">
-        <v>0</v>
+        <v>640</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -23834,7 +23834,7 @@
         <v>206</v>
       </c>
       <c r="R417">
-        <v>0</v>
+        <v>583</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -23890,7 +23890,7 @@
         <v>140</v>
       </c>
       <c r="R418">
-        <v>0</v>
+        <v>670</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="R419">
-        <v>0</v>
+        <v>475</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -24002,7 +24002,7 @@
         <v>9</v>
       </c>
       <c r="R420">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -24058,7 +24058,7 @@
         <v>186</v>
       </c>
       <c r="R421">
-        <v>0</v>
+        <v>307</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -24114,7 +24114,7 @@
         <v>222</v>
       </c>
       <c r="R422">
-        <v>0</v>
+        <v>530</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -24170,7 +24170,7 @@
         <v>178</v>
       </c>
       <c r="R423">
-        <v>0</v>
+        <v>457</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -24226,7 +24226,7 @@
         <v>193</v>
       </c>
       <c r="R424">
-        <v>0</v>
+        <v>455</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -24282,7 +24282,7 @@
         <v>167</v>
       </c>
       <c r="R425">
-        <v>0</v>
+        <v>444</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -24338,7 +24338,7 @@
         <v>217</v>
       </c>
       <c r="R426">
-        <v>0</v>
+        <v>437</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -24394,7 +24394,7 @@
         <v>225</v>
       </c>
       <c r="R427">
-        <v>0</v>
+        <v>640</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -24450,7 +24450,7 @@
         <v>206</v>
       </c>
       <c r="R428">
-        <v>0</v>
+        <v>583</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -24506,7 +24506,7 @@
         <v>140</v>
       </c>
       <c r="R429">
-        <v>0</v>
+        <v>670</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -24562,7 +24562,7 @@
         <v>0</v>
       </c>
       <c r="R430">
-        <v>0</v>
+        <v>475</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -24618,7 +24618,7 @@
         <v>9</v>
       </c>
       <c r="R431">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -24674,7 +24674,7 @@
         <v>186</v>
       </c>
       <c r="R432">
-        <v>0</v>
+        <v>307</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -24730,7 +24730,7 @@
         <v>222</v>
       </c>
       <c r="R433">
-        <v>0</v>
+        <v>530</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -24786,7 +24786,7 @@
         <v>178</v>
       </c>
       <c r="R434">
-        <v>0</v>
+        <v>457</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -24842,7 +24842,7 @@
         <v>193</v>
       </c>
       <c r="R435">
-        <v>0</v>
+        <v>455</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -24898,7 +24898,7 @@
         <v>167</v>
       </c>
       <c r="R436">
-        <v>0</v>
+        <v>444</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -24954,7 +24954,7 @@
         <v>217</v>
       </c>
       <c r="R437">
-        <v>0</v>
+        <v>437</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -25010,7 +25010,7 @@
         <v>225</v>
       </c>
       <c r="R438">
-        <v>0</v>
+        <v>640</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -25066,7 +25066,7 @@
         <v>206</v>
       </c>
       <c r="R439">
-        <v>0</v>
+        <v>583</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -25122,7 +25122,7 @@
         <v>140</v>
       </c>
       <c r="R440">
-        <v>0</v>
+        <v>670</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -25178,7 +25178,7 @@
         <v>0</v>
       </c>
       <c r="R441">
-        <v>0</v>
+        <v>475</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -25234,7 +25234,7 @@
         <v>14</v>
       </c>
       <c r="R442">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -25290,7 +25290,7 @@
         <v>198</v>
       </c>
       <c r="R443">
-        <v>0</v>
+        <v>438</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -25346,7 +25346,7 @@
         <v>198</v>
       </c>
       <c r="R444">
-        <v>0</v>
+        <v>535</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -25402,7 +25402,7 @@
         <v>181</v>
       </c>
       <c r="R445">
-        <v>0</v>
+        <v>528</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -25458,7 +25458,7 @@
         <v>152</v>
       </c>
       <c r="R446">
-        <v>0</v>
+        <v>523</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -25514,7 +25514,7 @@
         <v>216</v>
       </c>
       <c r="R447">
-        <v>0</v>
+        <v>522</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -25570,7 +25570,7 @@
         <v>187</v>
       </c>
       <c r="R448">
-        <v>0</v>
+        <v>502</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -25626,7 +25626,7 @@
         <v>272</v>
       </c>
       <c r="R449">
-        <v>0</v>
+        <v>593</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -25682,7 +25682,7 @@
         <v>241</v>
       </c>
       <c r="R450">
-        <v>0</v>
+        <v>658</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -25738,7 +25738,7 @@
         <v>127</v>
       </c>
       <c r="R451">
-        <v>0</v>
+        <v>599</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="R452">
-        <v>0</v>
+        <v>532</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -25850,7 +25850,7 @@
         <v>14</v>
       </c>
       <c r="R453">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -25906,7 +25906,7 @@
         <v>198</v>
       </c>
       <c r="R454">
-        <v>0</v>
+        <v>438</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -25962,7 +25962,7 @@
         <v>198</v>
       </c>
       <c r="R455">
-        <v>0</v>
+        <v>535</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -26018,7 +26018,7 @@
         <v>181</v>
       </c>
       <c r="R456">
-        <v>0</v>
+        <v>528</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -26074,7 +26074,7 @@
         <v>152</v>
       </c>
       <c r="R457">
-        <v>0</v>
+        <v>523</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -26130,7 +26130,7 @@
         <v>216</v>
       </c>
       <c r="R458">
-        <v>0</v>
+        <v>522</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -26186,7 +26186,7 @@
         <v>187</v>
       </c>
       <c r="R459">
-        <v>0</v>
+        <v>502</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -26242,7 +26242,7 @@
         <v>272</v>
       </c>
       <c r="R460">
-        <v>0</v>
+        <v>593</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -26298,7 +26298,7 @@
         <v>241</v>
       </c>
       <c r="R461">
-        <v>0</v>
+        <v>658</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -26354,7 +26354,7 @@
         <v>127</v>
       </c>
       <c r="R462">
-        <v>0</v>
+        <v>599</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -26410,7 +26410,7 @@
         <v>0</v>
       </c>
       <c r="R463">
-        <v>0</v>
+        <v>532</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -26466,7 +26466,7 @@
         <v>14</v>
       </c>
       <c r="R464">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -26522,7 +26522,7 @@
         <v>198</v>
       </c>
       <c r="R465">
-        <v>0</v>
+        <v>438</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -26578,7 +26578,7 @@
         <v>198</v>
       </c>
       <c r="R466">
-        <v>0</v>
+        <v>535</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -26634,7 +26634,7 @@
         <v>181</v>
       </c>
       <c r="R467">
-        <v>0</v>
+        <v>528</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -26690,7 +26690,7 @@
         <v>152</v>
       </c>
       <c r="R468">
-        <v>0</v>
+        <v>523</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -26746,7 +26746,7 @@
         <v>216</v>
       </c>
       <c r="R469">
-        <v>0</v>
+        <v>522</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -26802,7 +26802,7 @@
         <v>187</v>
       </c>
       <c r="R470">
-        <v>0</v>
+        <v>502</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -26858,7 +26858,7 @@
         <v>272</v>
       </c>
       <c r="R471">
-        <v>0</v>
+        <v>593</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -26914,7 +26914,7 @@
         <v>241</v>
       </c>
       <c r="R472">
-        <v>0</v>
+        <v>658</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -26970,7 +26970,7 @@
         <v>127</v>
       </c>
       <c r="R473">
-        <v>0</v>
+        <v>599</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="R474">
-        <v>0</v>
+        <v>532</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -27082,7 +27082,7 @@
         <v>14</v>
       </c>
       <c r="R475">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -27138,7 +27138,7 @@
         <v>198</v>
       </c>
       <c r="R476">
-        <v>0</v>
+        <v>438</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -27194,7 +27194,7 @@
         <v>198</v>
       </c>
       <c r="R477">
-        <v>0</v>
+        <v>535</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -27250,7 +27250,7 @@
         <v>181</v>
       </c>
       <c r="R478">
-        <v>0</v>
+        <v>528</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -27306,7 +27306,7 @@
         <v>152</v>
       </c>
       <c r="R479">
-        <v>0</v>
+        <v>523</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -27362,7 +27362,7 @@
         <v>216</v>
       </c>
       <c r="R480">
-        <v>0</v>
+        <v>522</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -27418,7 +27418,7 @@
         <v>187</v>
       </c>
       <c r="R481">
-        <v>0</v>
+        <v>502</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -27474,7 +27474,7 @@
         <v>272</v>
       </c>
       <c r="R482">
-        <v>0</v>
+        <v>593</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -27530,7 +27530,7 @@
         <v>241</v>
       </c>
       <c r="R483">
-        <v>0</v>
+        <v>658</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -27586,7 +27586,7 @@
         <v>127</v>
       </c>
       <c r="R484">
-        <v>0</v>
+        <v>599</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -27642,7 +27642,7 @@
         <v>0</v>
       </c>
       <c r="R485">
-        <v>0</v>
+        <v>532</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -27698,7 +27698,7 @@
         <v>18</v>
       </c>
       <c r="R486">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -27754,7 +27754,7 @@
         <v>304</v>
       </c>
       <c r="R487">
-        <v>0</v>
+        <v>885</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -27810,7 +27810,7 @@
         <v>252</v>
       </c>
       <c r="R488">
-        <v>0</v>
+        <v>988</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -27866,7 +27866,7 @@
         <v>227</v>
       </c>
       <c r="R489">
-        <v>0</v>
+        <v>950</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -27922,7 +27922,7 @@
         <v>232</v>
       </c>
       <c r="R490">
-        <v>0</v>
+        <v>956</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -27978,7 +27978,7 @@
         <v>308</v>
       </c>
       <c r="R491">
-        <v>0</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -28034,7 +28034,7 @@
         <v>301</v>
       </c>
       <c r="R492">
-        <v>0</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -28090,7 +28090,7 @@
         <v>490</v>
       </c>
       <c r="R493">
-        <v>0</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -28146,7 +28146,7 @@
         <v>391</v>
       </c>
       <c r="R494">
-        <v>0</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -28202,7 +28202,7 @@
         <v>188</v>
       </c>
       <c r="R495">
-        <v>0</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -28258,7 +28258,7 @@
         <v>0</v>
       </c>
       <c r="R496">
-        <v>0</v>
+        <v>915</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -28314,7 +28314,7 @@
         <v>18</v>
       </c>
       <c r="R497">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -28370,7 +28370,7 @@
         <v>304</v>
       </c>
       <c r="R498">
-        <v>0</v>
+        <v>885</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -28426,7 +28426,7 @@
         <v>252</v>
       </c>
       <c r="R499">
-        <v>0</v>
+        <v>988</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -28482,7 +28482,7 @@
         <v>227</v>
       </c>
       <c r="R500">
-        <v>0</v>
+        <v>950</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -28538,7 +28538,7 @@
         <v>232</v>
       </c>
       <c r="R501">
-        <v>0</v>
+        <v>956</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -28594,7 +28594,7 @@
         <v>308</v>
       </c>
       <c r="R502">
-        <v>0</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -28650,7 +28650,7 @@
         <v>301</v>
       </c>
       <c r="R503">
-        <v>0</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -28706,7 +28706,7 @@
         <v>490</v>
       </c>
       <c r="R504">
-        <v>0</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -28762,7 +28762,7 @@
         <v>391</v>
       </c>
       <c r="R505">
-        <v>0</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -28818,7 +28818,7 @@
         <v>188</v>
       </c>
       <c r="R506">
-        <v>0</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -28874,7 +28874,7 @@
         <v>0</v>
       </c>
       <c r="R507">
-        <v>0</v>
+        <v>915</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -28930,7 +28930,7 @@
         <v>18</v>
       </c>
       <c r="R508">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -28986,7 +28986,7 @@
         <v>304</v>
       </c>
       <c r="R509">
-        <v>0</v>
+        <v>885</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -29042,7 +29042,7 @@
         <v>252</v>
       </c>
       <c r="R510">
-        <v>0</v>
+        <v>988</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -29098,7 +29098,7 @@
         <v>227</v>
       </c>
       <c r="R511">
-        <v>0</v>
+        <v>950</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -29154,7 +29154,7 @@
         <v>232</v>
       </c>
       <c r="R512">
-        <v>0</v>
+        <v>956</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -29210,7 +29210,7 @@
         <v>308</v>
       </c>
       <c r="R513">
-        <v>0</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -29266,7 +29266,7 @@
         <v>301</v>
       </c>
       <c r="R514">
-        <v>0</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -29322,7 +29322,7 @@
         <v>490</v>
       </c>
       <c r="R515">
-        <v>0</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -29378,7 +29378,7 @@
         <v>391</v>
       </c>
       <c r="R516">
-        <v>0</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -29434,7 +29434,7 @@
         <v>188</v>
       </c>
       <c r="R517">
-        <v>0</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -29490,7 +29490,7 @@
         <v>0</v>
       </c>
       <c r="R518">
-        <v>0</v>
+        <v>915</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -29546,7 +29546,7 @@
         <v>18</v>
       </c>
       <c r="R519">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -29602,7 +29602,7 @@
         <v>304</v>
       </c>
       <c r="R520">
-        <v>0</v>
+        <v>885</v>
       </c>
     </row>
     <row r="521" spans="1:18">
@@ -29658,7 +29658,7 @@
         <v>252</v>
       </c>
       <c r="R521">
-        <v>0</v>
+        <v>988</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -29714,7 +29714,7 @@
         <v>227</v>
       </c>
       <c r="R522">
-        <v>0</v>
+        <v>950</v>
       </c>
     </row>
     <row r="523" spans="1:18">
@@ -29770,7 +29770,7 @@
         <v>232</v>
       </c>
       <c r="R523">
-        <v>0</v>
+        <v>956</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -29826,7 +29826,7 @@
         <v>308</v>
       </c>
       <c r="R524">
-        <v>0</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="525" spans="1:18">
@@ -29882,7 +29882,7 @@
         <v>301</v>
       </c>
       <c r="R525">
-        <v>0</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="526" spans="1:18">
@@ -29938,7 +29938,7 @@
         <v>490</v>
       </c>
       <c r="R526">
-        <v>0</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="527" spans="1:18">
@@ -29994,7 +29994,7 @@
         <v>391</v>
       </c>
       <c r="R527">
-        <v>0</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="528" spans="1:18">
@@ -30050,7 +30050,7 @@
         <v>188</v>
       </c>
       <c r="R528">
-        <v>0</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="529" spans="1:18">
@@ -30106,7 +30106,7 @@
         <v>0</v>
       </c>
       <c r="R529">
-        <v>0</v>
+        <v>915</v>
       </c>
     </row>
     <row r="530" spans="1:18">
@@ -30162,7 +30162,7 @@
         <v>26</v>
       </c>
       <c r="R530">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="531" spans="1:18">
@@ -30218,7 +30218,7 @@
         <v>322</v>
       </c>
       <c r="R531">
-        <v>0</v>
+        <v>796</v>
       </c>
     </row>
     <row r="532" spans="1:18">
@@ -30274,7 +30274,7 @@
         <v>283</v>
       </c>
       <c r="R532">
-        <v>0</v>
+        <v>929</v>
       </c>
     </row>
     <row r="533" spans="1:18">
@@ -30330,7 +30330,7 @@
         <v>255</v>
       </c>
       <c r="R533">
-        <v>0</v>
+        <v>894</v>
       </c>
     </row>
     <row r="534" spans="1:18">
@@ -30386,7 +30386,7 @@
         <v>246</v>
       </c>
       <c r="R534">
-        <v>0</v>
+        <v>786</v>
       </c>
     </row>
     <row r="535" spans="1:18">
@@ -30442,7 +30442,7 @@
         <v>384</v>
       </c>
       <c r="R535">
-        <v>0</v>
+        <v>975</v>
       </c>
     </row>
     <row r="536" spans="1:18">
@@ -30498,7 +30498,7 @@
         <v>421</v>
       </c>
       <c r="R536">
-        <v>0</v>
+        <v>959</v>
       </c>
     </row>
     <row r="537" spans="1:18">
@@ -30554,7 +30554,7 @@
         <v>368</v>
       </c>
       <c r="R537">
-        <v>0</v>
+        <v>896</v>
       </c>
     </row>
     <row r="538" spans="1:18">
@@ -30610,7 +30610,7 @@
         <v>379</v>
       </c>
       <c r="R538">
-        <v>0</v>
+        <v>921</v>
       </c>
     </row>
     <row r="539" spans="1:18">
@@ -30666,7 +30666,7 @@
         <v>194</v>
       </c>
       <c r="R539">
-        <v>0</v>
+        <v>897</v>
       </c>
     </row>
     <row r="540" spans="1:18">
@@ -30722,7 +30722,7 @@
         <v>0</v>
       </c>
       <c r="R540">
-        <v>0</v>
+        <v>852</v>
       </c>
     </row>
     <row r="541" spans="1:18">
@@ -30778,7 +30778,7 @@
         <v>26</v>
       </c>
       <c r="R541">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="542" spans="1:18">
@@ -30834,7 +30834,7 @@
         <v>322</v>
       </c>
       <c r="R542">
-        <v>0</v>
+        <v>796</v>
       </c>
     </row>
     <row r="543" spans="1:18">
@@ -30890,7 +30890,7 @@
         <v>283</v>
       </c>
       <c r="R543">
-        <v>0</v>
+        <v>929</v>
       </c>
     </row>
     <row r="544" spans="1:18">
@@ -30946,7 +30946,7 @@
         <v>255</v>
       </c>
       <c r="R544">
-        <v>0</v>
+        <v>894</v>
       </c>
     </row>
     <row r="545" spans="1:18">
@@ -31002,7 +31002,7 @@
         <v>246</v>
       </c>
       <c r="R545">
-        <v>0</v>
+        <v>786</v>
       </c>
     </row>
     <row r="546" spans="1:18">
@@ -31058,7 +31058,7 @@
         <v>384</v>
       </c>
       <c r="R546">
-        <v>0</v>
+        <v>975</v>
       </c>
     </row>
     <row r="547" spans="1:18">
@@ -31114,7 +31114,7 @@
         <v>421</v>
       </c>
       <c r="R547">
-        <v>0</v>
+        <v>959</v>
       </c>
     </row>
     <row r="548" spans="1:18">
@@ -31170,7 +31170,7 @@
         <v>368</v>
       </c>
       <c r="R548">
-        <v>0</v>
+        <v>896</v>
       </c>
     </row>
     <row r="549" spans="1:18">
@@ -31226,7 +31226,7 @@
         <v>379</v>
       </c>
       <c r="R549">
-        <v>0</v>
+        <v>921</v>
       </c>
     </row>
     <row r="550" spans="1:18">
@@ -31282,7 +31282,7 @@
         <v>194</v>
       </c>
       <c r="R550">
-        <v>0</v>
+        <v>897</v>
       </c>
     </row>
     <row r="551" spans="1:18">
@@ -31338,7 +31338,7 @@
         <v>0</v>
       </c>
       <c r="R551">
-        <v>0</v>
+        <v>852</v>
       </c>
     </row>
     <row r="552" spans="1:18">
@@ -31394,7 +31394,7 @@
         <v>26</v>
       </c>
       <c r="R552">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="553" spans="1:18">
@@ -31450,7 +31450,7 @@
         <v>322</v>
       </c>
       <c r="R553">
-        <v>0</v>
+        <v>796</v>
       </c>
     </row>
     <row r="554" spans="1:18">
@@ -31506,7 +31506,7 @@
         <v>283</v>
       </c>
       <c r="R554">
-        <v>0</v>
+        <v>929</v>
       </c>
     </row>
     <row r="555" spans="1:18">
@@ -31562,7 +31562,7 @@
         <v>255</v>
       </c>
       <c r="R555">
-        <v>0</v>
+        <v>894</v>
       </c>
     </row>
     <row r="556" spans="1:18">
@@ -31618,7 +31618,7 @@
         <v>246</v>
       </c>
       <c r="R556">
-        <v>0</v>
+        <v>786</v>
       </c>
     </row>
     <row r="557" spans="1:18">
@@ -31674,7 +31674,7 @@
         <v>384</v>
       </c>
       <c r="R557">
-        <v>0</v>
+        <v>975</v>
       </c>
     </row>
     <row r="558" spans="1:18">
@@ -31730,7 +31730,7 @@
         <v>421</v>
       </c>
       <c r="R558">
-        <v>0</v>
+        <v>959</v>
       </c>
     </row>
     <row r="559" spans="1:18">
@@ -31786,7 +31786,7 @@
         <v>368</v>
       </c>
       <c r="R559">
-        <v>0</v>
+        <v>896</v>
       </c>
     </row>
     <row r="560" spans="1:18">
@@ -31842,7 +31842,7 @@
         <v>379</v>
       </c>
       <c r="R560">
-        <v>0</v>
+        <v>921</v>
       </c>
     </row>
     <row r="561" spans="1:18">
@@ -31898,7 +31898,7 @@
         <v>194</v>
       </c>
       <c r="R561">
-        <v>0</v>
+        <v>897</v>
       </c>
     </row>
     <row r="562" spans="1:18">
@@ -31954,7 +31954,7 @@
         <v>0</v>
       </c>
       <c r="R562">
-        <v>0</v>
+        <v>852</v>
       </c>
     </row>
     <row r="563" spans="1:18">
@@ -32010,7 +32010,7 @@
         <v>26</v>
       </c>
       <c r="R563">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="564" spans="1:18">
@@ -32066,7 +32066,7 @@
         <v>322</v>
       </c>
       <c r="R564">
-        <v>0</v>
+        <v>796</v>
       </c>
     </row>
     <row r="565" spans="1:18">
@@ -32122,7 +32122,7 @@
         <v>283</v>
       </c>
       <c r="R565">
-        <v>0</v>
+        <v>929</v>
       </c>
     </row>
     <row r="566" spans="1:18">
@@ -32178,7 +32178,7 @@
         <v>255</v>
       </c>
       <c r="R566">
-        <v>0</v>
+        <v>894</v>
       </c>
     </row>
     <row r="567" spans="1:18">
@@ -32234,7 +32234,7 @@
         <v>246</v>
       </c>
       <c r="R567">
-        <v>0</v>
+        <v>786</v>
       </c>
     </row>
     <row r="568" spans="1:18">
@@ -32290,7 +32290,7 @@
         <v>384</v>
       </c>
       <c r="R568">
-        <v>0</v>
+        <v>975</v>
       </c>
     </row>
     <row r="569" spans="1:18">
@@ -32346,7 +32346,7 @@
         <v>421</v>
       </c>
       <c r="R569">
-        <v>0</v>
+        <v>959</v>
       </c>
     </row>
     <row r="570" spans="1:18">
@@ -32402,7 +32402,7 @@
         <v>368</v>
       </c>
       <c r="R570">
-        <v>0</v>
+        <v>896</v>
       </c>
     </row>
     <row r="571" spans="1:18">
@@ -32458,7 +32458,7 @@
         <v>379</v>
       </c>
       <c r="R571">
-        <v>0</v>
+        <v>921</v>
       </c>
     </row>
     <row r="572" spans="1:18">
@@ -32514,7 +32514,7 @@
         <v>194</v>
       </c>
       <c r="R572">
-        <v>0</v>
+        <v>897</v>
       </c>
     </row>
     <row r="573" spans="1:18">
@@ -32570,7 +32570,7 @@
         <v>0</v>
       </c>
       <c r="R573">
-        <v>0</v>
+        <v>852</v>
       </c>
     </row>
     <row r="574" spans="1:18">
@@ -32626,7 +32626,7 @@
         <v>19</v>
       </c>
       <c r="R574">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="575" spans="1:18">
@@ -32682,7 +32682,7 @@
         <v>240</v>
       </c>
       <c r="R575">
-        <v>0</v>
+        <v>505</v>
       </c>
     </row>
     <row r="576" spans="1:18">
@@ -32738,7 +32738,7 @@
         <v>217</v>
       </c>
       <c r="R576">
-        <v>0</v>
+        <v>666</v>
       </c>
     </row>
     <row r="577" spans="1:18">
@@ -32794,7 +32794,7 @@
         <v>252</v>
       </c>
       <c r="R577">
-        <v>0</v>
+        <v>786</v>
       </c>
     </row>
     <row r="578" spans="1:18">
@@ -32850,7 +32850,7 @@
         <v>262</v>
       </c>
       <c r="R578">
-        <v>0</v>
+        <v>854</v>
       </c>
     </row>
     <row r="579" spans="1:18">
@@ -32906,7 +32906,7 @@
         <v>268</v>
       </c>
       <c r="R579">
-        <v>0</v>
+        <v>882</v>
       </c>
     </row>
     <row r="580" spans="1:18">
@@ -32962,7 +32962,7 @@
         <v>268</v>
       </c>
       <c r="R580">
-        <v>0</v>
+        <v>696</v>
       </c>
     </row>
     <row r="581" spans="1:18">
@@ -33018,7 +33018,7 @@
         <v>344</v>
       </c>
       <c r="R581">
-        <v>0</v>
+        <v>825</v>
       </c>
     </row>
     <row r="582" spans="1:18">
@@ -33074,7 +33074,7 @@
         <v>328</v>
       </c>
       <c r="R582">
-        <v>0</v>
+        <v>824</v>
       </c>
     </row>
     <row r="583" spans="1:18">
@@ -33130,7 +33130,7 @@
         <v>218</v>
       </c>
       <c r="R583">
-        <v>0</v>
+        <v>924</v>
       </c>
     </row>
     <row r="584" spans="1:18">
@@ -33186,7 +33186,7 @@
         <v>0</v>
       </c>
       <c r="R584">
-        <v>0</v>
+        <v>604</v>
       </c>
     </row>
     <row r="585" spans="1:18">
@@ -33242,7 +33242,7 @@
         <v>19</v>
       </c>
       <c r="R585">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="586" spans="1:18">
@@ -33298,7 +33298,7 @@
         <v>240</v>
       </c>
       <c r="R586">
-        <v>0</v>
+        <v>505</v>
       </c>
     </row>
     <row r="587" spans="1:18">
@@ -33354,7 +33354,7 @@
         <v>217</v>
       </c>
       <c r="R587">
-        <v>0</v>
+        <v>666</v>
       </c>
     </row>
     <row r="588" spans="1:18">
@@ -33410,7 +33410,7 @@
         <v>252</v>
       </c>
       <c r="R588">
-        <v>0</v>
+        <v>786</v>
       </c>
     </row>
     <row r="589" spans="1:18">
@@ -33466,7 +33466,7 @@
         <v>262</v>
       </c>
       <c r="R589">
-        <v>0</v>
+        <v>854</v>
       </c>
     </row>
     <row r="590" spans="1:18">
@@ -33522,7 +33522,7 @@
         <v>268</v>
       </c>
       <c r="R590">
-        <v>0</v>
+        <v>882</v>
       </c>
     </row>
     <row r="591" spans="1:18">
@@ -33578,7 +33578,7 @@
         <v>268</v>
       </c>
       <c r="R591">
-        <v>0</v>
+        <v>696</v>
       </c>
     </row>
     <row r="592" spans="1:18">
@@ -33634,7 +33634,7 @@
         <v>344</v>
       </c>
       <c r="R592">
-        <v>0</v>
+        <v>825</v>
       </c>
     </row>
     <row r="593" spans="1:18">
@@ -33690,7 +33690,7 @@
         <v>328</v>
       </c>
       <c r="R593">
-        <v>0</v>
+        <v>824</v>
       </c>
     </row>
     <row r="594" spans="1:18">
@@ -33746,7 +33746,7 @@
         <v>218</v>
       </c>
       <c r="R594">
-        <v>0</v>
+        <v>924</v>
       </c>
     </row>
     <row r="595" spans="1:18">
@@ -33802,7 +33802,7 @@
         <v>0</v>
       </c>
       <c r="R595">
-        <v>0</v>
+        <v>604</v>
       </c>
     </row>
     <row r="596" spans="1:18">
@@ -33858,7 +33858,7 @@
         <v>19</v>
       </c>
       <c r="R596">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="597" spans="1:18">
@@ -33914,7 +33914,7 @@
         <v>240</v>
       </c>
       <c r="R597">
-        <v>0</v>
+        <v>505</v>
       </c>
     </row>
     <row r="598" spans="1:18">
@@ -33970,7 +33970,7 @@
         <v>217</v>
       </c>
       <c r="R598">
-        <v>0</v>
+        <v>666</v>
       </c>
     </row>
     <row r="599" spans="1:18">
@@ -34026,7 +34026,7 @@
         <v>252</v>
       </c>
       <c r="R599">
-        <v>0</v>
+        <v>786</v>
       </c>
     </row>
     <row r="600" spans="1:18">
@@ -34082,7 +34082,7 @@
         <v>262</v>
       </c>
       <c r="R600">
-        <v>0</v>
+        <v>854</v>
       </c>
     </row>
     <row r="601" spans="1:18">
@@ -34138,7 +34138,7 @@
         <v>268</v>
       </c>
       <c r="R601">
-        <v>0</v>
+        <v>882</v>
       </c>
     </row>
     <row r="602" spans="1:18">
@@ -34194,7 +34194,7 @@
         <v>268</v>
       </c>
       <c r="R602">
-        <v>0</v>
+        <v>696</v>
       </c>
     </row>
     <row r="603" spans="1:18">
@@ -34250,7 +34250,7 @@
         <v>344</v>
       </c>
       <c r="R603">
-        <v>0</v>
+        <v>825</v>
       </c>
     </row>
     <row r="604" spans="1:18">
@@ -34306,7 +34306,7 @@
         <v>328</v>
       </c>
       <c r="R604">
-        <v>0</v>
+        <v>824</v>
       </c>
     </row>
     <row r="605" spans="1:18">
@@ -34362,7 +34362,7 @@
         <v>218</v>
       </c>
       <c r="R605">
-        <v>0</v>
+        <v>924</v>
       </c>
     </row>
     <row r="606" spans="1:18">
@@ -34418,7 +34418,7 @@
         <v>0</v>
       </c>
       <c r="R606">
-        <v>0</v>
+        <v>604</v>
       </c>
     </row>
     <row r="607" spans="1:18">
@@ -34474,7 +34474,7 @@
         <v>19</v>
       </c>
       <c r="R607">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="608" spans="1:18">
@@ -34530,7 +34530,7 @@
         <v>240</v>
       </c>
       <c r="R608">
-        <v>0</v>
+        <v>505</v>
       </c>
     </row>
     <row r="609" spans="1:18">
@@ -34586,7 +34586,7 @@
         <v>217</v>
       </c>
       <c r="R609">
-        <v>0</v>
+        <v>666</v>
       </c>
     </row>
     <row r="610" spans="1:18">
@@ -34642,7 +34642,7 @@
         <v>252</v>
       </c>
       <c r="R610">
-        <v>0</v>
+        <v>786</v>
       </c>
     </row>
     <row r="611" spans="1:18">
@@ -34698,7 +34698,7 @@
         <v>262</v>
       </c>
       <c r="R611">
-        <v>0</v>
+        <v>854</v>
       </c>
     </row>
     <row r="612" spans="1:18">
@@ -34754,7 +34754,7 @@
         <v>268</v>
       </c>
       <c r="R612">
-        <v>0</v>
+        <v>882</v>
       </c>
     </row>
     <row r="613" spans="1:18">
@@ -34810,7 +34810,7 @@
         <v>268</v>
       </c>
       <c r="R613">
-        <v>0</v>
+        <v>696</v>
       </c>
     </row>
     <row r="614" spans="1:18">
@@ -34866,7 +34866,7 @@
         <v>344</v>
       </c>
       <c r="R614">
-        <v>0</v>
+        <v>825</v>
       </c>
     </row>
     <row r="615" spans="1:18">
@@ -34922,7 +34922,7 @@
         <v>328</v>
       </c>
       <c r="R615">
-        <v>0</v>
+        <v>824</v>
       </c>
     </row>
     <row r="616" spans="1:18">
@@ -34978,7 +34978,7 @@
         <v>218</v>
       </c>
       <c r="R616">
-        <v>0</v>
+        <v>924</v>
       </c>
     </row>
     <row r="617" spans="1:18">
@@ -35034,7 +35034,7 @@
         <v>0</v>
       </c>
       <c r="R617">
-        <v>0</v>
+        <v>604</v>
       </c>
     </row>
     <row r="618" spans="1:18">
@@ -35090,7 +35090,7 @@
         <v>18</v>
       </c>
       <c r="R618">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="619" spans="1:18">
@@ -35146,7 +35146,7 @@
         <v>318</v>
       </c>
       <c r="R619">
-        <v>0</v>
+        <v>848</v>
       </c>
     </row>
     <row r="620" spans="1:18">
@@ -35202,7 +35202,7 @@
         <v>350</v>
       </c>
       <c r="R620">
-        <v>0</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="621" spans="1:18">
@@ -35258,7 +35258,7 @@
         <v>237</v>
       </c>
       <c r="R621">
-        <v>0</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="622" spans="1:18">
@@ -35314,7 +35314,7 @@
         <v>237</v>
       </c>
       <c r="R622">
-        <v>0</v>
+        <v>977</v>
       </c>
     </row>
     <row r="623" spans="1:18">
@@ -35370,7 +35370,7 @@
         <v>372</v>
       </c>
       <c r="R623">
-        <v>0</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="624" spans="1:18">
@@ -35426,7 +35426,7 @@
         <v>345</v>
       </c>
       <c r="R624">
-        <v>0</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="625" spans="1:18">
@@ -35482,7 +35482,7 @@
         <v>392</v>
       </c>
       <c r="R625">
-        <v>0</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="626" spans="1:18">
@@ -35538,7 +35538,7 @@
         <v>456</v>
       </c>
       <c r="R626">
-        <v>0</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="627" spans="1:18">
@@ -35594,7 +35594,7 @@
         <v>213</v>
       </c>
       <c r="R627">
-        <v>0</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="628" spans="1:18">
@@ -35650,7 +35650,7 @@
         <v>0</v>
       </c>
       <c r="R628">
-        <v>0</v>
+        <v>962</v>
       </c>
     </row>
     <row r="629" spans="1:18">
@@ -35706,7 +35706,7 @@
         <v>18</v>
       </c>
       <c r="R629">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="630" spans="1:18">
@@ -35762,7 +35762,7 @@
         <v>318</v>
       </c>
       <c r="R630">
-        <v>0</v>
+        <v>848</v>
       </c>
     </row>
     <row r="631" spans="1:18">
@@ -35818,7 +35818,7 @@
         <v>350</v>
       </c>
       <c r="R631">
-        <v>0</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="632" spans="1:18">
@@ -35874,7 +35874,7 @@
         <v>237</v>
       </c>
       <c r="R632">
-        <v>0</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="633" spans="1:18">
@@ -35930,7 +35930,7 @@
         <v>237</v>
       </c>
       <c r="R633">
-        <v>0</v>
+        <v>977</v>
       </c>
     </row>
     <row r="634" spans="1:18">
@@ -35986,7 +35986,7 @@
         <v>372</v>
       </c>
       <c r="R634">
-        <v>0</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="635" spans="1:18">
@@ -36042,7 +36042,7 @@
         <v>345</v>
       </c>
       <c r="R635">
-        <v>0</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="636" spans="1:18">
@@ -36098,7 +36098,7 @@
         <v>392</v>
       </c>
       <c r="R636">
-        <v>0</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="637" spans="1:18">
@@ -36154,7 +36154,7 @@
         <v>456</v>
       </c>
       <c r="R637">
-        <v>0</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="638" spans="1:18">
@@ -36210,7 +36210,7 @@
         <v>213</v>
       </c>
       <c r="R638">
-        <v>0</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="639" spans="1:18">
@@ -36266,7 +36266,7 @@
         <v>0</v>
       </c>
       <c r="R639">
-        <v>0</v>
+        <v>962</v>
       </c>
     </row>
     <row r="640" spans="1:18">
@@ -36322,7 +36322,7 @@
         <v>18</v>
       </c>
       <c r="R640">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="641" spans="1:18">
@@ -36378,7 +36378,7 @@
         <v>318</v>
       </c>
       <c r="R641">
-        <v>0</v>
+        <v>848</v>
       </c>
     </row>
     <row r="642" spans="1:18">
@@ -36434,7 +36434,7 @@
         <v>350</v>
       </c>
       <c r="R642">
-        <v>0</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="643" spans="1:18">
@@ -36490,7 +36490,7 @@
         <v>237</v>
       </c>
       <c r="R643">
-        <v>0</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="644" spans="1:18">
@@ -36546,7 +36546,7 @@
         <v>237</v>
       </c>
       <c r="R644">
-        <v>0</v>
+        <v>977</v>
       </c>
     </row>
     <row r="645" spans="1:18">
@@ -36602,7 +36602,7 @@
         <v>372</v>
       </c>
       <c r="R645">
-        <v>0</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="646" spans="1:18">
@@ -36658,7 +36658,7 @@
         <v>345</v>
       </c>
       <c r="R646">
-        <v>0</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="647" spans="1:18">
@@ -36714,7 +36714,7 @@
         <v>392</v>
       </c>
       <c r="R647">
-        <v>0</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="648" spans="1:18">
@@ -36770,7 +36770,7 @@
         <v>456</v>
       </c>
       <c r="R648">
-        <v>0</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="649" spans="1:18">
@@ -36826,7 +36826,7 @@
         <v>213</v>
       </c>
       <c r="R649">
-        <v>0</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="650" spans="1:18">
@@ -36882,7 +36882,7 @@
         <v>0</v>
       </c>
       <c r="R650">
-        <v>0</v>
+        <v>962</v>
       </c>
     </row>
     <row r="651" spans="1:18">
@@ -36938,7 +36938,7 @@
         <v>18</v>
       </c>
       <c r="R651">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="652" spans="1:18">
@@ -36994,7 +36994,7 @@
         <v>318</v>
       </c>
       <c r="R652">
-        <v>0</v>
+        <v>848</v>
       </c>
     </row>
     <row r="653" spans="1:18">
@@ -37050,7 +37050,7 @@
         <v>350</v>
       </c>
       <c r="R653">
-        <v>0</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="654" spans="1:18">
@@ -37106,7 +37106,7 @@
         <v>237</v>
       </c>
       <c r="R654">
-        <v>0</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="655" spans="1:18">
@@ -37162,7 +37162,7 @@
         <v>237</v>
       </c>
       <c r="R655">
-        <v>0</v>
+        <v>977</v>
       </c>
     </row>
     <row r="656" spans="1:18">
@@ -37218,7 +37218,7 @@
         <v>372</v>
       </c>
       <c r="R656">
-        <v>0</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="657" spans="1:18">
@@ -37274,7 +37274,7 @@
         <v>345</v>
       </c>
       <c r="R657">
-        <v>0</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="658" spans="1:18">
@@ -37330,7 +37330,7 @@
         <v>392</v>
       </c>
       <c r="R658">
-        <v>0</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="659" spans="1:18">
@@ -37386,7 +37386,7 @@
         <v>456</v>
       </c>
       <c r="R659">
-        <v>0</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="660" spans="1:18">
@@ -37442,7 +37442,7 @@
         <v>213</v>
       </c>
       <c r="R660">
-        <v>0</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="661" spans="1:18">
@@ -37498,7 +37498,7 @@
         <v>0</v>
       </c>
       <c r="R661">
-        <v>0</v>
+        <v>962</v>
       </c>
     </row>
     <row r="662" spans="1:18">
@@ -37554,7 +37554,7 @@
         <v>17</v>
       </c>
       <c r="R662">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="663" spans="1:18">
@@ -37610,7 +37610,7 @@
         <v>180</v>
       </c>
       <c r="R663">
-        <v>0</v>
+        <v>328</v>
       </c>
     </row>
     <row r="664" spans="1:18">
@@ -37666,7 +37666,7 @@
         <v>158</v>
       </c>
       <c r="R664">
-        <v>0</v>
+        <v>484</v>
       </c>
     </row>
     <row r="665" spans="1:18">
@@ -37722,7 +37722,7 @@
         <v>146</v>
       </c>
       <c r="R665">
-        <v>0</v>
+        <v>469</v>
       </c>
     </row>
     <row r="666" spans="1:18">
@@ -37778,7 +37778,7 @@
         <v>132</v>
       </c>
       <c r="R666">
-        <v>0</v>
+        <v>502</v>
       </c>
     </row>
     <row r="667" spans="1:18">
@@ -37834,7 +37834,7 @@
         <v>201</v>
       </c>
       <c r="R667">
-        <v>0</v>
+        <v>592</v>
       </c>
     </row>
     <row r="668" spans="1:18">
@@ -37890,7 +37890,7 @@
         <v>239</v>
       </c>
       <c r="R668">
-        <v>0</v>
+        <v>625</v>
       </c>
     </row>
     <row r="669" spans="1:18">
@@ -37946,7 +37946,7 @@
         <v>277</v>
       </c>
       <c r="R669">
-        <v>0</v>
+        <v>715</v>
       </c>
     </row>
     <row r="670" spans="1:18">
@@ -38002,7 +38002,7 @@
         <v>255</v>
       </c>
       <c r="R670">
-        <v>0</v>
+        <v>702</v>
       </c>
     </row>
     <row r="671" spans="1:18">
@@ -38058,7 +38058,7 @@
         <v>141</v>
       </c>
       <c r="R671">
-        <v>0</v>
+        <v>658</v>
       </c>
     </row>
     <row r="672" spans="1:18">
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="R672">
-        <v>0</v>
+        <v>640</v>
       </c>
     </row>
     <row r="673" spans="1:18">
@@ -38170,7 +38170,7 @@
         <v>17</v>
       </c>
       <c r="R673">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="674" spans="1:18">
@@ -38226,7 +38226,7 @@
         <v>180</v>
       </c>
       <c r="R674">
-        <v>0</v>
+        <v>328</v>
       </c>
     </row>
     <row r="675" spans="1:18">
@@ -38282,7 +38282,7 @@
         <v>158</v>
       </c>
       <c r="R675">
-        <v>0</v>
+        <v>484</v>
       </c>
     </row>
     <row r="676" spans="1:18">
@@ -38338,7 +38338,7 @@
         <v>146</v>
       </c>
       <c r="R676">
-        <v>0</v>
+        <v>469</v>
       </c>
     </row>
     <row r="677" spans="1:18">
@@ -38394,7 +38394,7 @@
         <v>132</v>
       </c>
       <c r="R677">
-        <v>0</v>
+        <v>502</v>
       </c>
     </row>
     <row r="678" spans="1:18">
@@ -38450,7 +38450,7 @@
         <v>201</v>
       </c>
       <c r="R678">
-        <v>0</v>
+        <v>592</v>
       </c>
     </row>
     <row r="679" spans="1:18">
@@ -38506,7 +38506,7 @@
         <v>239</v>
       </c>
       <c r="R679">
-        <v>0</v>
+        <v>625</v>
       </c>
     </row>
     <row r="680" spans="1:18">
@@ -38562,7 +38562,7 @@
         <v>277</v>
       </c>
       <c r="R680">
-        <v>0</v>
+        <v>715</v>
       </c>
     </row>
     <row r="681" spans="1:18">
@@ -38618,7 +38618,7 @@
         <v>255</v>
       </c>
       <c r="R681">
-        <v>0</v>
+        <v>702</v>
       </c>
     </row>
     <row r="682" spans="1:18">
@@ -38674,7 +38674,7 @@
         <v>141</v>
       </c>
       <c r="R682">
-        <v>0</v>
+        <v>658</v>
       </c>
     </row>
     <row r="683" spans="1:18">
@@ -38730,7 +38730,7 @@
         <v>0</v>
       </c>
       <c r="R683">
-        <v>0</v>
+        <v>640</v>
       </c>
     </row>
     <row r="684" spans="1:18">
@@ -38786,7 +38786,7 @@
         <v>17</v>
       </c>
       <c r="R684">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="685" spans="1:18">
@@ -38842,7 +38842,7 @@
         <v>180</v>
       </c>
       <c r="R685">
-        <v>0</v>
+        <v>328</v>
       </c>
     </row>
     <row r="686" spans="1:18">
@@ -38898,7 +38898,7 @@
         <v>158</v>
       </c>
       <c r="R686">
-        <v>0</v>
+        <v>484</v>
       </c>
     </row>
     <row r="687" spans="1:18">
@@ -38954,7 +38954,7 @@
         <v>146</v>
       </c>
       <c r="R687">
-        <v>0</v>
+        <v>469</v>
       </c>
     </row>
     <row r="688" spans="1:18">
@@ -39010,7 +39010,7 @@
         <v>132</v>
       </c>
       <c r="R688">
-        <v>0</v>
+        <v>502</v>
       </c>
     </row>
     <row r="689" spans="1:18">
@@ -39066,7 +39066,7 @@
         <v>201</v>
       </c>
       <c r="R689">
-        <v>0</v>
+        <v>592</v>
       </c>
     </row>
     <row r="690" spans="1:18">
@@ -39122,7 +39122,7 @@
         <v>239</v>
       </c>
       <c r="R690">
-        <v>0</v>
+        <v>625</v>
       </c>
     </row>
     <row r="691" spans="1:18">
@@ -39178,7 +39178,7 @@
         <v>277</v>
       </c>
       <c r="R691">
-        <v>0</v>
+        <v>715</v>
       </c>
     </row>
     <row r="692" spans="1:18">
@@ -39234,7 +39234,7 @@
         <v>255</v>
       </c>
       <c r="R692">
-        <v>0</v>
+        <v>702</v>
       </c>
     </row>
     <row r="693" spans="1:18">
@@ -39290,7 +39290,7 @@
         <v>141</v>
       </c>
       <c r="R693">
-        <v>0</v>
+        <v>658</v>
       </c>
     </row>
     <row r="694" spans="1:18">
@@ -39346,7 +39346,7 @@
         <v>0</v>
       </c>
       <c r="R694">
-        <v>0</v>
+        <v>640</v>
       </c>
     </row>
     <row r="695" spans="1:18">
@@ -39402,7 +39402,7 @@
         <v>17</v>
       </c>
       <c r="R695">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="696" spans="1:18">
@@ -39458,7 +39458,7 @@
         <v>180</v>
       </c>
       <c r="R696">
-        <v>0</v>
+        <v>328</v>
       </c>
     </row>
     <row r="697" spans="1:18">
@@ -39514,7 +39514,7 @@
         <v>158</v>
       </c>
       <c r="R697">
-        <v>0</v>
+        <v>484</v>
       </c>
     </row>
     <row r="698" spans="1:18">
@@ -39570,7 +39570,7 @@
         <v>146</v>
       </c>
       <c r="R698">
-        <v>0</v>
+        <v>469</v>
       </c>
     </row>
     <row r="699" spans="1:18">
@@ -39626,7 +39626,7 @@
         <v>132</v>
       </c>
       <c r="R699">
-        <v>0</v>
+        <v>502</v>
       </c>
     </row>
     <row r="700" spans="1:18">
@@ -39682,7 +39682,7 @@
         <v>201</v>
       </c>
       <c r="R700">
-        <v>0</v>
+        <v>592</v>
       </c>
     </row>
     <row r="701" spans="1:18">
@@ -39738,7 +39738,7 @@
         <v>239</v>
       </c>
       <c r="R701">
-        <v>0</v>
+        <v>625</v>
       </c>
     </row>
     <row r="702" spans="1:18">
@@ -39794,7 +39794,7 @@
         <v>277</v>
       </c>
       <c r="R702">
-        <v>0</v>
+        <v>715</v>
       </c>
     </row>
     <row r="703" spans="1:18">
@@ -39850,7 +39850,7 @@
         <v>255</v>
       </c>
       <c r="R703">
-        <v>0</v>
+        <v>702</v>
       </c>
     </row>
     <row r="704" spans="1:18">
@@ -39906,7 +39906,7 @@
         <v>141</v>
       </c>
       <c r="R704">
-        <v>0</v>
+        <v>658</v>
       </c>
     </row>
     <row r="705" spans="1:18">
@@ -39962,7 +39962,7 @@
         <v>0</v>
       </c>
       <c r="R705">
-        <v>0</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
